--- a/config_4.27/box_exchange_server.xlsx
+++ b/config_4.27/box_exchange_server.xlsx
@@ -6353,9 +6353,9 @@
   <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
+      <selection pane="bottomLeft" activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9019,9 +9019,9 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -10251,7 +10251,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E549" sqref="E549"/>
+      <selection pane="bottomRight" activeCell="D555" sqref="D555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -18051,7 +18051,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H555" sqref="H555"/>
+      <selection pane="bottomLeft" activeCell="D559" sqref="D559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -28287,7 +28287,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
